--- a/doc/11.xlsx
+++ b/doc/11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\纸飞机\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F6E51A-26D4-4A93-8EAB-99C737D326A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1E69C3-C800-4D0D-B202-F6E647151EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{F1496070-8429-4068-80E7-31651E4D65AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
   <si>
     <t>登录用户表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>电影表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,6 +393,18 @@
   </si>
   <si>
     <t>职业类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar（max）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C753C71F-043B-4350-A59A-D0DAE4714DF1}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -894,12 +902,12 @@
     <col min="9" max="9" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -922,14 +930,14 @@
         <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -946,13 +954,13 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -966,7 +974,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -980,7 +988,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -999,13 +1007,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1019,7 +1027,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -1028,12 +1036,12 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1044,15 +1052,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1060,7 +1068,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1068,15 +1076,15 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1084,24 +1092,24 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -1113,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>1</v>
@@ -1127,7 +1135,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
@@ -1136,62 +1144,62 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1199,26 +1207,26 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -1235,79 +1243,79 @@
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1315,24 +1323,24 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1346,16 +1354,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1363,52 +1371,52 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
         <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -1416,7 +1424,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -1424,7 +1432,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -1433,7 +1441,7 @@
     <row r="51" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -1447,40 +1455,40 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,37 +1496,37 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
@@ -1532,13 +1540,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1546,44 +1554,44 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -1592,7 +1600,7 @@
     <row r="71" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
@@ -1606,29 +1614,29 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,28 +1644,28 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>

--- a/doc/11.xlsx
+++ b/doc/11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\纸飞机\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1E69C3-C800-4D0D-B202-F6E647151EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFDD94B-175C-41E8-B974-31FED03E14C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{F1496070-8429-4068-80E7-31651E4D65AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>登录用户表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -296,18 +296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>char</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级评论类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ying/ping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>讨论表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -332,10 +320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>讨论类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主题ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,6 +389,78 @@
   </si>
   <si>
     <t>nvarchar(max)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整性约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论标题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（ID均为int型）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(0-10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check（0-10）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值为0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C753C71F-043B-4350-A59A-D0DAE4714DF1}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -906,8 +962,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -930,14 +989,14 @@
         <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -960,7 +1019,7 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -974,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -988,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1001,13 +1060,16 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1055,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1121,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>1</v>
@@ -1158,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1166,10 +1228,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1180,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1213,7 +1275,7 @@
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1249,7 +1311,7 @@
         <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -1266,10 +1328,10 @@
         <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1279,6 +1341,9 @@
       <c r="C32" t="s">
         <v>30</v>
       </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
@@ -1288,7 +1353,7 @@
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -1302,7 +1367,7 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1357,7 +1422,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>60</v>
@@ -1373,6 +1438,9 @@
       <c r="C42" t="s">
         <v>43</v>
       </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
@@ -1381,6 +1449,9 @@
       <c r="C43" t="s">
         <v>43</v>
       </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
@@ -1388,6 +1459,9 @@
       </c>
       <c r="C44" t="s">
         <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1458,7 +1532,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>60</v>
@@ -1471,6 +1545,9 @@
       <c r="C54" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
@@ -1481,15 +1558,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
@@ -1498,6 +1568,9 @@
       <c r="C57" t="s">
         <v>64</v>
       </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
@@ -1506,6 +1579,9 @@
       <c r="C58" t="s">
         <v>64</v>
       </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
@@ -1526,7 +1602,7 @@
     <row r="61" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
@@ -1540,7 +1616,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>43</v>
@@ -1567,7 +1643,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>55</v>
@@ -1575,7 +1651,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -1600,7 +1676,7 @@
     <row r="71" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
@@ -1614,10 +1690,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>60</v>
@@ -1625,7 +1701,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>43</v>
@@ -1633,10 +1709,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>67</v>
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,10 +1725,13 @@
       <c r="C76" t="s">
         <v>64</v>
       </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -1669,6 +1751,56 @@
       </c>
       <c r="C79" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
